--- a/Cryptographic Properties Table.xlsx
+++ b/Cryptographic Properties Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrchr\Dropbox\BYU\9. Fall 2021\CS 465 - Clift, Frederic M\TLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747F2303-B141-4FE7-BFA3-6FDF436A3DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B13E3F-9FAE-462E-A1B4-F1AE46539DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4560" windowWidth="28800" windowHeight="15435" xr2:uid="{37CC23B0-E172-45D5-A167-F0A5C66B5F2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37CC23B0-E172-45D5-A167-F0A5C66B5F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,23 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Key Exchange Method2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="87">
   <si>
     <t>Website</t>
   </si>
   <si>
-    <t>Message Authentication Algorithm</t>
-  </si>
-  <si>
-    <t>Symmetric Encryption Algorithm</t>
-  </si>
-  <si>
     <t>Key Size</t>
   </si>
   <si>
@@ -70,13 +58,250 @@
   </si>
   <si>
     <t>byu.edu</t>
+  </si>
+  <si>
+    <t>Key Exchange Method</t>
+  </si>
+  <si>
+    <t>TLS Versions</t>
+  </si>
+  <si>
+    <t>1.0, 1.1, 1.2, 1.3</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>http</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>ECDHE</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>SHA384</t>
+  </si>
+  <si>
+    <t>Protocol Service</t>
+  </si>
+  <si>
+    <t>CRL, OCSP</t>
+  </si>
+  <si>
+    <t>Revocation</t>
+  </si>
+  <si>
+    <t>Encryption Algorithm</t>
+  </si>
+  <si>
+    <t>MAC Algorithm</t>
+  </si>
+  <si>
+    <t>Cert Subject</t>
+  </si>
+  <si>
+    <t>*.google.com</t>
+  </si>
+  <si>
+    <t>GCM</t>
+  </si>
+  <si>
+    <t>Num Certs</t>
+  </si>
+  <si>
+    <t>*.instagram.com</t>
+  </si>
+  <si>
+    <t>DigiCert SHA2 High Assurance Server CA</t>
+  </si>
+  <si>
+    <t>SHA256</t>
+  </si>
+  <si>
+    <t>CHACHA20</t>
+  </si>
+  <si>
+    <t>ChaCha20POLY preventstiming attacks</t>
+  </si>
+  <si>
+    <t>POLY1305</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>N/A for stream ciphers</t>
+  </si>
+  <si>
+    <t>Entrust Certification Authority - L1M</t>
+  </si>
+  <si>
+    <t>*.byu.edu</t>
+  </si>
+  <si>
+    <t>DigiCert TLS RSA SHA256 2020 CA1</t>
+  </si>
+  <si>
+    <t>1.2, 1.3</t>
+  </si>
+  <si>
+    <t>clickup.com</t>
+  </si>
+  <si>
+    <t>Root Cert Issuer</t>
+  </si>
+  <si>
+    <t>*.clickup.com</t>
+  </si>
+  <si>
+    <t>Amazon Root CA 1</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>*.facebook.com</t>
+  </si>
+  <si>
+    <t>ksl.com</t>
+  </si>
+  <si>
+    <t>Go Daddy Secure Certificate Authority - G2</t>
+  </si>
+  <si>
+    <t>*.ksl.com</t>
+  </si>
+  <si>
+    <t>mastercard.com</t>
+  </si>
+  <si>
+    <t>insecure certificate</t>
+  </si>
+  <si>
+    <t>Entrust Certification Authority - L1K</t>
+  </si>
+  <si>
+    <t>store.steampowered.com</t>
+  </si>
+  <si>
+    <t>DigiCert SHA2 Extended Validation Server CA</t>
+  </si>
+  <si>
+    <t>unity3d.com</t>
+  </si>
+  <si>
+    <t>RC4</t>
+  </si>
+  <si>
+    <t>*.unity3d.com</t>
+  </si>
+  <si>
+    <t>DigiCert SHA2 Secure Server CA</t>
+  </si>
+  <si>
+    <t>1.0, 1.1, 1.2</t>
+  </si>
+  <si>
+    <t>wikipedia.org</t>
+  </si>
+  <si>
+    <t>*.wikipedia.org</t>
+  </si>
+  <si>
+    <t>Internet Security Research Group, ISRG Root X1</t>
+  </si>
+  <si>
+    <t>OCSP</t>
+  </si>
+  <si>
+    <t>only one without CRL revocation</t>
+  </si>
+  <si>
+    <t>youtube.com</t>
+  </si>
+  <si>
+    <t>imap</t>
+  </si>
+  <si>
+    <t>imap.gmail.com</t>
+  </si>
+  <si>
+    <t>pop.mail.yahoo.com</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>legacy.pop.mail.yahoo.com</t>
+  </si>
+  <si>
+    <t>pop.gmail.com</t>
+  </si>
+  <si>
+    <t>smtp.gmail.com</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>GTS Root R1</t>
+  </si>
+  <si>
+    <t>17 totals</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Google.com</t>
+  </si>
+  <si>
+    <t>Store.SteamPowered.com</t>
+  </si>
+  <si>
+    <t>Instagram.com</t>
+  </si>
+  <si>
+    <t>Integrity and Authentication</t>
+  </si>
+  <si>
+    <t>TSL Version</t>
+  </si>
+  <si>
+    <t>Security Property</t>
+  </si>
+  <si>
+    <t>1.2, 1.3*</t>
+  </si>
+  <si>
+    <t>*Forward Secrecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy/Confidentiality </t>
+  </si>
+  <si>
+    <t>X509 Certificate</t>
+  </si>
+  <si>
+    <t>Non-Repudiation</t>
+  </si>
+  <si>
+    <t>RSA Digital Signature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +309,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,17 +358,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -125,8 +532,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8AE09CC-83FD-42A5-BF8E-99D6D6257955}" name="Table1" displayName="Table1" ref="B2:H12" totalsRowShown="0">
-  <autoFilter ref="B2:H12" xr:uid="{D8AE09CC-83FD-42A5-BF8E-99D6D6257955}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8AE09CC-83FD-42A5-BF8E-99D6D6257955}" name="Table1" displayName="Table1" ref="B2:N19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="16">
+  <autoFilter ref="B2:N19" xr:uid="{D8AE09CC-83FD-42A5-BF8E-99D6D6257955}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -134,15 +541,64 @@
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D564D242-5ED0-42AF-B25A-128E22800E6B}" name="Website"/>
-    <tableColumn id="2" xr3:uid="{BBBB8E14-0E04-494D-BE19-731224BAF65D}" name="Key Exchange Method2"/>
-    <tableColumn id="3" xr3:uid="{8541CBDC-357A-4641-9E04-945EF185DD13}" name="Message Authentication Algorithm"/>
-    <tableColumn id="4" xr3:uid="{65C2C5D6-09B1-4F45-B927-BDEAF77880B5}" name="Symmetric Encryption Algorithm"/>
-    <tableColumn id="5" xr3:uid="{3BF2E32D-8E02-45FF-88FA-B53B6CE538CD}" name="Key Size"/>
-    <tableColumn id="6" xr3:uid="{7061A384-60B8-4B1B-82B9-2B281C69FC0A}" name="Mode"/>
-    <tableColumn id="7" xr3:uid="{57C6AF9C-E772-484B-A1F8-A3E73EF0A94E}" name="Column7"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{D564D242-5ED0-42AF-B25A-128E22800E6B}" name="Website" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{02AC5A77-873E-41EA-917B-1B10A0A5911C}" name="Port" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{E82F616C-6E1C-41B0-A555-73ABA08B07A8}" name="Protocol Service" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{BEFA6FD6-D774-4203-A901-13100B12FE95}" name="Num Certs" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{8F866542-53C6-4778-9681-6649FC6D5838}" name="Cert Subject" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{BB95F951-23AC-4045-AB83-8EF78B91A000}" name="Root Cert Issuer" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{2678C2C1-B7F9-4248-A815-06D764D54521}" name="Revocation" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{28DE756C-627E-45A7-8BFF-FBA7F8ACD961}" name="TLS Versions" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{BBBB8E14-0E04-494D-BE19-731224BAF65D}" name="Key Exchange Method" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{65C2C5D6-09B1-4F45-B927-BDEAF77880B5}" name="Encryption Algorithm" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{3BF2E32D-8E02-45FF-88FA-B53B6CE538CD}" name="Key Size" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{7061A384-60B8-4B1B-82B9-2B281C69FC0A}" name="Mode" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{57C6AF9C-E772-484B-A1F8-A3E73EF0A94E}" name="MAC Algorithm" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{88AD3858-B198-4283-952D-36EDF514B77B}" name="Table2" displayName="Table2" ref="D26:E30" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="D26:E30" xr:uid="{88AD3858-B198-4283-952D-36EDF514B77B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D27:E30">
+    <sortCondition descending="1" ref="E26:E30"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D6D27C18-9E15-485C-865A-C74C595F1017}" name="Version" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D3B1E559-627E-4A05-9D93-894513A608A1}" name="Count" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C1E967E1-E84F-447C-A2C6-65C0814232FA}" name="Table3" displayName="Table3" ref="V2:Z6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="V2:Z6" xr:uid="{C1E967E1-E84F-447C-A2C6-65C0814232FA}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9F7D6DED-0B87-4F0F-9C46-A943285CF67A}" name="Key Exchange Method" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BF10D4B5-A0A3-42B2-88E0-CB2D6195A658}" name="Encryption Algorithm" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E4464A8B-FC2E-4F10-89A4-9BED7B76CD95}" name="MAC Algorithm" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{B222D411-D486-48B6-99FD-0F0251A124DC}" name="TSL Version" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{FDF549DD-4177-4605-B3A6-9806BE80401F}" name="X509 Certificate" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -445,76 +901,929 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98B224E-6EF6-47F2-ADE9-E5D31B712146}">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="117" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>443</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="2">
+        <v>128</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>443</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="2">
+        <v>256</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>443</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="2">
+        <v>256</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>443</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2">
+        <v>128</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>443</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2">
+        <v>256</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>443</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2">
+        <v>128</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>443</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2">
+        <v>256</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>443</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2">
+        <v>128</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>443</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2">
+        <v>256</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>443</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="2">
+        <v>256</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2">
+        <v>443</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="2">
+        <v>256</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2">
+        <v>443</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="2">
+        <v>256</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2">
+        <v>443</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2">
+        <v>256</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>993</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="2">
+        <v>256</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2">
+        <v>993</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="2">
+        <v>256</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2">
+        <v>993</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2">
+        <v>256</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2">
+        <v>995</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="2">
+        <v>256</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>